--- a/답변/(교수님강의1)_답변.xlsx
+++ b/답변/(교수님강의1)_답변.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NA\Desktop\종설\답변관련\답변정리완료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NA\git\Project\Dataset\답변\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCDC9C75-023E-462C-AC25-9DDB7F5DCB63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB3D97D-EAF1-4E16-B0B9-ED9D362C5649}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C8711C4-8D43-4D2A-AFDF-EA923A26F845}"/>
+    <workbookView xWindow="3195" yWindow="3195" windowWidth="19845" windowHeight="11385" xr2:uid="{2C8711C4-8D43-4D2A-AFDF-EA923A26F845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박상훈교수님은 2학기 때 컴퓨터구성 수업을 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>양기주교수님은 1학기 때 자료구조와실습 2학기 때 안드로이드앱프로그래밍, 객체지향언어와실습 수업을 하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,6 +410,10 @@
   </si>
   <si>
     <t>김양우교수님은 1학기 때 운영체제 수업을 하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한효준교수님은 2학기 때 컴퓨터구성 수업을 하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E33B111-C56F-4B2A-BCF9-CE57725A8A5D}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1027,7 +1027,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1035,7 +1035,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1051,7 +1051,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1059,7 +1059,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1067,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1075,7 +1075,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1083,7 +1083,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1091,7 +1091,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1099,7 +1099,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1107,7 +1107,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1115,7 +1115,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1123,7 +1123,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1131,7 +1131,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1139,7 +1139,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1147,7 +1147,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1155,7 +1155,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1163,7 +1163,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1171,11 +1171,12 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>